--- a/test/xls/FoodStatic.xlsx
+++ b/test/xls/FoodStatic.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F9A1288-D2F3-4317-85CE-2F2DA446E0D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FoodStatic" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>ClassName</t>
   </si>
@@ -160,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum(EnumFoodType,CatFood(猫粮),GreenFood(绿叶菜),Banana(香蕉),Fish(鱼干),Cheese(奶酪),CatCan(猫罐头),MedicineOne(一号药瓶),MedicineTwo(二号药瓶))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FoodIconName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +170,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>绿叶菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>driedFood_h_icon</t>
   </si>
   <si>
@@ -211,13 +202,35 @@
   </si>
   <si>
     <t>cannedFood_h_icon</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>一号药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号药瓶</t>
+  </si>
+  <si>
+    <t>enum(EnumFoodType,CatFood(猫粮),GreenFood(蔬菜),Banana(香蕉),Fish(鱼干),Cheese(奶酪),CatCan(猫罐头),MedicineOne(一号药瓶),MedicineTwo(二号药瓶))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaoping_1_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaoping_2_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +250,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -272,6 +293,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -332,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,26 +387,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,23 +422,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,29 +597,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +628,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -649,7 +637,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -658,7 +646,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -696,10 +684,10 @@
         <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -735,10 +723,10 @@
         <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -746,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -776,10 +764,10 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -820,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -861,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -902,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -943,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>1</v>
       </c>
@@ -978,24 +966,21 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -1004,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1016,34 +1001,31 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
@@ -1054,34 +1036,31 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>30</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>40</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>35</v>
-      </c>
       <c r="J14">
         <v>0</v>
       </c>
@@ -1092,27 +1071,24 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1130,45 +1106,97 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>200</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>60</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
